--- a/published-data/fonds-solidarite/fds-2022-06-09/fonds-solidarite-volet-1-regional-naf.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-06-09/fonds-solidarite-volet-1-regional-naf.xlsx
@@ -4469,13 +4469,13 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>136573</v>
+        <v>136574</v>
       </c>
       <c r="D99" t="n">
         <v>14096</v>
       </c>
       <c r="E99" t="n">
-        <v>863122772</v>
+        <v>863127835</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
@@ -4674,13 +4674,13 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>22091</v>
+        <v>22092</v>
       </c>
       <c r="D104" t="n">
         <v>4583</v>
       </c>
       <c r="E104" t="n">
-        <v>84771211</v>
+        <v>84781211</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -6642,13 +6642,13 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>126047</v>
+        <v>126049</v>
       </c>
       <c r="D152" t="n">
         <v>13497</v>
       </c>
       <c r="E152" t="n">
-        <v>715970384</v>
+        <v>716031030</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
@@ -7298,13 +7298,13 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>285040</v>
+        <v>285044</v>
       </c>
       <c r="D168" t="n">
         <v>58123</v>
       </c>
       <c r="E168" t="n">
-        <v>1211399569</v>
+        <v>1211637520</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
@@ -7339,13 +7339,13 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>562620</v>
+        <v>562621</v>
       </c>
       <c r="D169" t="n">
         <v>60955</v>
       </c>
       <c r="E169" t="n">
-        <v>1285086060</v>
+        <v>1285088726</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
@@ -7380,13 +7380,13 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>367441</v>
+        <v>367442</v>
       </c>
       <c r="D170" t="n">
         <v>38111</v>
       </c>
       <c r="E170" t="n">
-        <v>2846641091</v>
+        <v>2846642921</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
@@ -7421,13 +7421,13 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>115175</v>
+        <v>115176</v>
       </c>
       <c r="D171" t="n">
         <v>20264</v>
       </c>
       <c r="E171" t="n">
-        <v>447170625</v>
+        <v>447172908</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
@@ -7544,13 +7544,13 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>357272</v>
+        <v>357274</v>
       </c>
       <c r="D174" t="n">
         <v>69789</v>
       </c>
       <c r="E174" t="n">
-        <v>1018700246</v>
+        <v>1018772988</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
@@ -7585,13 +7585,13 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>125563</v>
+        <v>125565</v>
       </c>
       <c r="D175" t="n">
         <v>18100</v>
       </c>
       <c r="E175" t="n">
-        <v>813587329</v>
+        <v>813669189</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>
@@ -7790,13 +7790,13 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>141496</v>
+        <v>141499</v>
       </c>
       <c r="D180" t="n">
         <v>28891</v>
       </c>
       <c r="E180" t="n">
-        <v>341072088</v>
+        <v>341102088</v>
       </c>
       <c r="F180" t="inlineStr">
         <is>
@@ -8118,13 +8118,13 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>19708</v>
+        <v>19710</v>
       </c>
       <c r="D188" t="n">
         <v>2625</v>
       </c>
       <c r="E188" t="n">
-        <v>66154634</v>
+        <v>66163080</v>
       </c>
       <c r="F188" t="inlineStr">
         <is>
@@ -8774,13 +8774,13 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>4759</v>
+        <v>4760</v>
       </c>
       <c r="D204" t="n">
         <v>729</v>
       </c>
       <c r="E204" t="n">
-        <v>11763349</v>
+        <v>11797399</v>
       </c>
       <c r="F204" t="inlineStr">
         <is>
@@ -13243,13 +13243,13 @@
         </is>
       </c>
       <c r="C313" t="n">
-        <v>220650</v>
+        <v>220657</v>
       </c>
       <c r="D313" t="n">
         <v>23419</v>
       </c>
       <c r="E313" t="n">
-        <v>1371052430</v>
+        <v>1371167045</v>
       </c>
       <c r="F313" t="inlineStr">
         <is>
